--- a/photoreal/base.xlsx
+++ b/photoreal/base.xlsx
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,7 +411,7 @@
     <col min="1" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
@@ -825,7 +825,7 @@
         <v>91000</v>
       </c>
       <c r="H12" s="2">
-        <v>3112200.0000000005</v>
+        <v>3112200</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>87000</v>
       </c>
       <c r="H14" s="2">
-        <v>3671400.0000000005</v>
+        <v>3671400</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
@@ -1070,7 +1070,7 @@
         <v>91000</v>
       </c>
       <c r="H19" s="2">
-        <v>3112200.0000000005</v>
+        <v>3112200</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>84981.04</v>
       </c>
       <c r="H21" s="2">
-        <v>3586199.8879999998</v>
+        <v>3586200</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1175,7 +1175,7 @@
         <v>84981.04</v>
       </c>
       <c r="H22" s="2">
-        <v>3586199.8879999998</v>
+        <v>3586200</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>87000</v>
       </c>
       <c r="H28" s="2">
-        <v>3671400.0000000005</v>
+        <v>3671400</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>87000</v>
       </c>
       <c r="H29" s="2">
-        <v>3671400.0000000005</v>
+        <v>3671400</v>
       </c>
       <c r="I29" s="1">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>84871.76</v>
       </c>
       <c r="H43" s="2">
-        <v>3607049.8</v>
+        <v>3607050</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -1921,8 +1921,9 @@
       <c r="K43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2062,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>84871.76</v>
       </c>
       <c r="H57" s="2">
-        <v>3607049.8</v>
+        <v>3607050</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2435,7 +2436,7 @@
         <v>84871.76</v>
       </c>
       <c r="H58" s="2">
-        <v>3607049.8</v>
+        <v>3607050</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2925,7 +2926,7 @@
         <v>85362.35</v>
       </c>
       <c r="H72" s="2">
-        <v>3627899.8750000005</v>
+        <v>3627900</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
@@ -2960,7 +2961,7 @@
         <v>85362.35</v>
       </c>
       <c r="H73" s="2">
-        <v>3627899.8750000005</v>
+        <v>3627900</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
@@ -3485,7 +3486,7 @@
         <v>85362.35</v>
       </c>
       <c r="H88" s="2">
-        <v>3627899.8750000005</v>
+        <v>3627900</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
@@ -3520,7 +3521,7 @@
         <v>85362.35</v>
       </c>
       <c r="H89" s="2">
-        <v>3627899.8750000005</v>
+        <v>3627900</v>
       </c>
       <c r="I89" s="1">
         <v>1</v>
@@ -4150,7 +4151,7 @@
         <v>86343.53</v>
       </c>
       <c r="H107" s="2">
-        <v>3669600.0249999999</v>
+        <v>3669600</v>
       </c>
       <c r="I107" s="1">
         <v>1</v>
@@ -4185,7 +4186,7 @@
         <v>86343.53</v>
       </c>
       <c r="H108" s="2">
-        <v>3669600.0249999999</v>
+        <v>3669600</v>
       </c>
       <c r="I108" s="1">
         <v>1</v>
@@ -4360,7 +4361,7 @@
         <v>84500</v>
       </c>
       <c r="H113" s="2">
-        <v>5610800.0000000009</v>
+        <v>5610800</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
@@ -4430,7 +4431,7 @@
         <v>85000</v>
       </c>
       <c r="H115" s="2">
-        <v>5644000.0000000009</v>
+        <v>5644000</v>
       </c>
       <c r="I115" s="1">
         <v>0</v>
@@ -4535,7 +4536,7 @@
         <v>85000</v>
       </c>
       <c r="H118" s="2">
-        <v>5644000.0000000009</v>
+        <v>5644000</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
@@ -5060,7 +5061,7 @@
         <v>84500</v>
       </c>
       <c r="H133" s="2">
-        <v>5627699.9999999991</v>
+        <v>5627700</v>
       </c>
       <c r="I133" s="1">
         <v>1</v>
@@ -5270,7 +5271,7 @@
         <v>85500</v>
       </c>
       <c r="H139" s="2">
-        <v>5694299.9999999991</v>
+        <v>5694300</v>
       </c>
       <c r="I139" s="1">
         <v>0</v>
@@ -5550,7 +5551,7 @@
         <v>86000</v>
       </c>
       <c r="H147" s="2">
-        <v>5727599.9999999991</v>
+        <v>5727600</v>
       </c>
       <c r="I147" s="1">
         <v>0</v>
@@ -5760,7 +5761,7 @@
         <v>86000</v>
       </c>
       <c r="H153" s="2">
-        <v>5727599.9999999991</v>
+        <v>5727600</v>
       </c>
       <c r="I153" s="1">
         <v>1</v>
@@ -6005,7 +6006,7 @@
         <v>86000</v>
       </c>
       <c r="H160" s="2">
-        <v>5727599.9999999991</v>
+        <v>5727600</v>
       </c>
       <c r="I160" s="1">
         <v>0</v>
@@ -6285,7 +6286,7 @@
         <v>86000</v>
       </c>
       <c r="H168" s="2">
-        <v>5727599.9999999991</v>
+        <v>5727600</v>
       </c>
       <c r="I168" s="1">
         <v>1</v>
@@ -6355,7 +6356,7 @@
         <v>87000</v>
       </c>
       <c r="H170" s="2">
-        <v>5794199.9999999991</v>
+        <v>5794200</v>
       </c>
       <c r="I170" s="1">
         <v>0</v>
@@ -6425,7 +6426,7 @@
         <v>89000</v>
       </c>
       <c r="H172" s="2">
-        <v>3853699.9999999995</v>
+        <v>3853700</v>
       </c>
       <c r="I172" s="1">
         <v>0</v>

--- a/photoreal/base.xlsx
+++ b/photoreal/base.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>section</t>
+  </si>
+  <si>
+    <t>groupFloor</t>
+  </si>
+  <si>
+    <t>numberFloor</t>
   </si>
 </sst>
 </file>
@@ -91,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -105,7 +111,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -403,7 +408,7 @@
   <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="N165" sqref="N165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -413,11 +418,13 @@
     <col min="7" max="7" width="9.140625" style="3"/>
     <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +458,14 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -466,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <v>83.7</v>
@@ -483,11 +496,17 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -501,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>83.7</v>
@@ -518,11 +537,17 @@
       <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -536,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
         <v>84.2</v>
@@ -553,11 +578,17 @@
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -571,7 +602,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <v>28.6</v>
@@ -588,11 +619,17 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -606,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <v>43.6</v>
@@ -623,11 +660,17 @@
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -641,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>62.2</v>
@@ -658,11 +701,17 @@
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -676,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <v>27.6</v>
@@ -693,11 +742,17 @@
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -711,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <v>30.1</v>
@@ -728,11 +783,17 @@
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -746,7 +807,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>84.2</v>
@@ -763,4107 +824,4814 @@
       <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" customFormat="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>274</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>25.2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11">
         <v>92000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>2318400</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" customFormat="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>279</v>
       </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>34.200000000000003</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>91000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>3112200</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" customFormat="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>280</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
         <v>63.4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13">
         <v>84000</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>5325600</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" customFormat="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>282</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>42.2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>87000</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>3671400</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" customFormat="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>284</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>64.7</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15">
         <v>84000</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>5434800</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" customFormat="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>285</v>
       </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>74.2</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>83000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>6158600</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" customFormat="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>286</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>63.7</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17">
         <v>84000</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>5350800</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" customFormat="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>287</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>11</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>30.9</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>91000</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>2811900</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" customFormat="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>288</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>11</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>34.200000000000003</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>91000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>3112200</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" customFormat="1">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>289</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
         <v>11</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>63.4</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>84000</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>5325600</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" customFormat="1">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>290</v>
       </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>11</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
         <v>42.2</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>84981.04</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>3586200</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" customFormat="1">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>291</v>
       </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>11</v>
       </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
         <v>42.2</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>84981.04</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>3586200</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" customFormat="1">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>293</v>
       </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
         <v>11</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>64.7</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>84000</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>5434800</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" customFormat="1">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>294</v>
       </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>11</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>74.2</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>83000</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>6158600</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" customFormat="1">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>295</v>
       </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>11</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>63.7</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>84000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>5350800</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" customFormat="1">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>296</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>12</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
         <v>30.9</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>91000</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>2811900</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" customFormat="1">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>298</v>
       </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
         <v>12</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>63.4</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>84000</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>5325600</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" customFormat="1">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>299</v>
       </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>12</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
         <v>42.2</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>87000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>3671400</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" customFormat="1">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>300</v>
       </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
         <v>42.2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29">
         <v>87000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
         <v>3671400</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" customFormat="1">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>302</v>
       </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
         <v>64.7</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>84000</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
         <v>5434800</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" customFormat="1">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>303</v>
       </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
         <v>12</v>
       </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>74.2</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31">
         <v>83000</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <v>6158600</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" customFormat="1">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>304</v>
       </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
         <v>12</v>
       </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
         <v>63.7</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>84000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <v>5350800</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" customFormat="1">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>311</v>
       </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
         <v>13</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>65</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33">
         <v>83500</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>5427500</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" customFormat="1">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>315</v>
       </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>14</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>34.1</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>91500</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>3120150</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" customFormat="1">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>317</v>
       </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
         <v>14</v>
       </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>42.5</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35">
         <v>87500</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <v>3718750</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" customFormat="1">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>318</v>
       </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
         <v>14</v>
       </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
         <v>42.5</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>87500</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <v>3718750</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" customFormat="1">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>320</v>
       </c>
-      <c r="C37" s="1">
-        <v>2</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
         <v>14</v>
       </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>65</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37">
         <v>84500</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <v>5492500</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" customFormat="1">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>321</v>
       </c>
-      <c r="C38" s="1">
-        <v>2</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
         <v>14</v>
       </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
         <v>74.8</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38">
         <v>83500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <v>6245800</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" customFormat="1">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>322</v>
       </c>
-      <c r="C39" s="1">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
         <v>14</v>
       </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
         <v>64.3</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39">
         <v>84500</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>5433350</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" customFormat="1">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>323</v>
       </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
         <v>30.8</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40">
         <v>91500</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <v>2818200</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K40" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" customFormat="1">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>324</v>
       </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>15</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
         <v>34.1</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41">
         <v>91500</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>3120150</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" customFormat="1">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>325</v>
       </c>
-      <c r="C42" s="1">
-        <v>2</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
         <v>15</v>
       </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
         <v>64</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42">
         <v>84500</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
         <v>5408000</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" customFormat="1">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>327</v>
       </c>
-      <c r="C43" s="1">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
         <v>15</v>
       </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
         <v>42.5</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43">
         <v>84871.76</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
         <v>3607050</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="5">
-        <v>1</v>
-      </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" customFormat="1">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>329</v>
       </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
         <v>15</v>
       </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
         <v>65</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44">
         <v>84500</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
         <v>5492500</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" customFormat="1">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>330</v>
       </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
         <v>15</v>
       </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
         <v>74.8</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45">
         <v>83500</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
         <v>6245800</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" customFormat="1">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>331</v>
       </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>15</v>
       </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
         <v>64.3</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46">
         <v>84500</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
         <v>5433350</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" customFormat="1">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>332</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>16</v>
       </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
         <v>30.8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47">
         <v>91500</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
         <v>2818200</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" customFormat="1">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>333</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>16</v>
       </c>
-      <c r="E48" s="2">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
         <v>34.1</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48">
         <v>91500</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
         <v>3120150</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" customFormat="1">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>334</v>
       </c>
-      <c r="C49" s="1">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
         <v>16</v>
       </c>
-      <c r="E49" s="2">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
         <v>64</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49">
         <v>84500</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
         <v>5408000</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" customFormat="1">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>335</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
         <v>16</v>
       </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
         <v>42.5</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50">
         <v>87500</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
         <v>3718750</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K50" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" customFormat="1">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>338</v>
       </c>
-      <c r="C51" s="1">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
         <v>16</v>
       </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
         <v>65</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51">
         <v>84500</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
         <v>5492500</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K51" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" customFormat="1">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>339</v>
       </c>
-      <c r="C52" s="1">
-        <v>2</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>16</v>
       </c>
-      <c r="E52" s="2">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>74.8</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52">
         <v>83500</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
         <v>6245800</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" customFormat="1">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>340</v>
       </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
         <v>16</v>
       </c>
-      <c r="E53" s="2">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
         <v>64.3</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53">
         <v>84500</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53">
         <v>5433350</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53">
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" customFormat="1">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>341</v>
       </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>17</v>
       </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
         <v>30.8</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54">
         <v>91500</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54">
         <v>2818200</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" customFormat="1">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>342</v>
       </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>17</v>
       </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
         <v>34.1</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55">
         <v>91500</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55">
         <v>3120150</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" customFormat="1">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>343</v>
       </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
         <v>17</v>
       </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>64</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56">
         <v>84500</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56">
         <v>5408000</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" customFormat="1">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>344</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
         <v>17</v>
       </c>
-      <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
         <v>42.5</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57">
         <v>84871.76</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57">
         <v>3607050</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" customFormat="1">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>345</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
         <v>17</v>
       </c>
-      <c r="E58" s="2">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
         <v>42.5</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58">
         <v>84871.76</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
         <v>3607050</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" customFormat="1">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>346</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>17</v>
       </c>
-      <c r="E59" s="2">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
         <v>25.4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59">
         <v>92500</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59">
         <v>2349500</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" customFormat="1">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>347</v>
       </c>
-      <c r="C60" s="1">
-        <v>2</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
         <v>17</v>
       </c>
-      <c r="E60" s="2">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
         <v>65</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60">
         <v>84500</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60">
         <v>5492500</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1">
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" customFormat="1">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>348</v>
       </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
         <v>17</v>
       </c>
-      <c r="E61" s="2">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>74.8</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61">
         <v>83500</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61">
         <v>6245800</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" customFormat="1">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>349</v>
       </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
         <v>17</v>
       </c>
-      <c r="E62" s="2">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
         <v>64.3</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62">
         <v>84500</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62">
         <v>5433350</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1">
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" customFormat="1">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>350</v>
       </c>
-      <c r="C63" s="1">
-        <v>0</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
         <v>18</v>
       </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
         <v>30.8</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63">
         <v>92000</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63">
         <v>2833600</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K63" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1">
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" customFormat="1">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>352</v>
       </c>
-      <c r="C64" s="1">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
         <v>18</v>
       </c>
-      <c r="E64" s="2">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
         <v>64</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64">
         <v>85000</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64">
         <v>5440000</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" customFormat="1">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>353</v>
       </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>18</v>
       </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
         <v>42.5</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65">
         <v>88000</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65">
         <v>3740000</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" customFormat="1">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>354</v>
       </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
         <v>18</v>
       </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
         <v>42.5</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66">
         <v>88000</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66">
         <v>3740000</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1">
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" customFormat="1">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>356</v>
       </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
         <v>18</v>
       </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
         <v>65</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67">
         <v>85000</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67">
         <v>5525000</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" customFormat="1">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>358</v>
       </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
         <v>18</v>
       </c>
-      <c r="E68" s="2">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
         <v>64.3</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68">
         <v>85000</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68">
         <v>5465500</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68">
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1">
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" customFormat="1">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>359</v>
       </c>
-      <c r="C69" s="1">
-        <v>0</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>19</v>
       </c>
-      <c r="E69" s="2">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
         <v>30.8</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69">
         <v>92000</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69">
         <v>2833600</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="1">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" customFormat="1">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>360</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
         <v>19</v>
       </c>
-      <c r="E70" s="2">
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
         <v>34.1</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70">
         <v>92000</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70">
         <v>3137200</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K70" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="1">
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" customFormat="1">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>361</v>
       </c>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
         <v>19</v>
       </c>
-      <c r="E71" s="2">
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
         <v>64</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71">
         <v>85000</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71">
         <v>5440000</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K71" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="1">
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" customFormat="1">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>362</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
         <v>19</v>
       </c>
-      <c r="E72" s="2">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
         <v>42.5</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72">
         <v>85362.35</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72">
         <v>3627900</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="1">
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" customFormat="1">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>363</v>
       </c>
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
         <v>19</v>
       </c>
-      <c r="E73" s="2">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
         <v>42.5</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73">
         <v>85362.35</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73">
         <v>3627900</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="1">
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" customFormat="1">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>364</v>
       </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <v>19</v>
       </c>
-      <c r="E74" s="2">
-        <v>0</v>
-      </c>
-      <c r="F74" s="4">
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
         <v>25.4</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74">
         <v>93000</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74">
         <v>2362200</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K74" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="1">
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" customFormat="1">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>365</v>
       </c>
-      <c r="C75" s="1">
-        <v>2</v>
-      </c>
-      <c r="D75" s="1">
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
         <v>19</v>
       </c>
-      <c r="E75" s="2">
-        <v>0</v>
-      </c>
-      <c r="F75" s="4">
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
         <v>65</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75">
         <v>85000</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75">
         <v>5525000</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K75" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="1">
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" customFormat="1">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>366</v>
       </c>
-      <c r="C76" s="1">
-        <v>2</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
         <v>19</v>
       </c>
-      <c r="E76" s="2">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
         <v>74.8</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76">
         <v>84000</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76">
         <v>6283200</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="1">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" customFormat="1">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>367</v>
       </c>
-      <c r="C77" s="1">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
         <v>19</v>
       </c>
-      <c r="E77" s="2">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
         <v>64.3</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77">
         <v>85000</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77">
         <v>5465500</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="1">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" customFormat="1">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>369</v>
       </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>20</v>
       </c>
-      <c r="E78" s="2">
-        <v>0</v>
-      </c>
-      <c r="F78" s="4">
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
         <v>34.1</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78">
         <v>92000</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78">
         <v>3137200</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="1">
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" customFormat="1">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>370</v>
       </c>
-      <c r="C79" s="1">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
         <v>20</v>
       </c>
-      <c r="E79" s="2">
-        <v>0</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
         <v>64</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79">
         <v>85000</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79">
         <v>5440000</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K79" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="1">
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" customFormat="1">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>371</v>
       </c>
-      <c r="C80" s="1">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
         <v>20</v>
       </c>
-      <c r="E80" s="2">
-        <v>0</v>
-      </c>
-      <c r="F80" s="4">
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
         <v>42.5</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80">
         <v>88000</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80">
         <v>3740000</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80">
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="1">
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" customFormat="1">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>372</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
         <v>20</v>
       </c>
-      <c r="E81" s="2">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4">
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
         <v>42.5</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81">
         <v>88000</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81">
         <v>3740000</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="1">
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" customFormat="1">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>373</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>20</v>
       </c>
-      <c r="E82" s="2">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4">
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
         <v>25.4</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82">
         <v>93000</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82">
         <v>2362200</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K82" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="1">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" customFormat="1">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>374</v>
       </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
         <v>20</v>
       </c>
-      <c r="E83" s="2">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
         <v>65</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83">
         <v>85000</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83">
         <v>5525000</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="1">
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" customFormat="1">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>375</v>
       </c>
-      <c r="C84" s="1">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
         <v>20</v>
       </c>
-      <c r="E84" s="2">
-        <v>0</v>
-      </c>
-      <c r="F84" s="4">
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
         <v>74.8</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84">
         <v>84000</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84">
         <v>6283200</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" customFormat="1">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>376</v>
       </c>
-      <c r="C85" s="1">
-        <v>2</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
         <v>20</v>
       </c>
-      <c r="E85" s="2">
-        <v>0</v>
-      </c>
-      <c r="F85" s="4">
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
         <v>64.3</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85">
         <v>85000</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85">
         <v>5465500</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85">
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K85" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="1">
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" customFormat="1">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>377</v>
       </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
         <v>21</v>
       </c>
-      <c r="E86" s="2">
-        <v>0</v>
-      </c>
-      <c r="F86" s="4">
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
         <v>30.8</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86">
         <v>92000</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86">
         <v>2833600</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K86" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="1">
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" customFormat="1">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>378</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
         <v>21</v>
       </c>
-      <c r="E87" s="2">
-        <v>0</v>
-      </c>
-      <c r="F87" s="4">
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
         <v>34.1</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87">
         <v>92000</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87">
         <v>3137200</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K87" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="1">
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" customFormat="1">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>380</v>
       </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
         <v>21</v>
       </c>
-      <c r="E88" s="2">
-        <v>0</v>
-      </c>
-      <c r="F88" s="4">
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
         <v>42.5</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88">
         <v>85362.35</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88">
         <v>3627900</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K88" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="1">
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" customFormat="1">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>381</v>
       </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
         <v>21</v>
       </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-      <c r="F89" s="4">
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
         <v>42.5</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>85362.35</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89">
         <v>3627900</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="1">
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" customFormat="1">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>383</v>
       </c>
-      <c r="C90" s="1">
-        <v>2</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
         <v>21</v>
       </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4">
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
         <v>65</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>85000</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90">
         <v>5525000</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K90" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" customFormat="1">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>384</v>
       </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
         <v>21</v>
       </c>
-      <c r="E91" s="2">
-        <v>0</v>
-      </c>
-      <c r="F91" s="4">
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
         <v>74.8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>84000</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91">
         <v>6283200</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" customFormat="1">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>385</v>
       </c>
-      <c r="C92" s="1">
-        <v>2</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
         <v>21</v>
       </c>
-      <c r="E92" s="2">
-        <v>0</v>
-      </c>
-      <c r="F92" s="4">
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
         <v>64.3</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>85000</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92">
         <v>5465500</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K92" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1">
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" customFormat="1">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>386</v>
       </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
         <v>22</v>
       </c>
-      <c r="E93" s="2">
-        <v>0</v>
-      </c>
-      <c r="F93" s="4">
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
         <v>30.8</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>92000</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93">
         <v>2833600</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K93" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" customFormat="1">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>387</v>
       </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
         <v>22</v>
       </c>
-      <c r="E94" s="2">
-        <v>0</v>
-      </c>
-      <c r="F94" s="4">
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
         <v>34.1</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>92000</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94">
         <v>3137200</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94">
         <v>0</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="1">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" customFormat="1">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>389</v>
       </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
         <v>22</v>
       </c>
-      <c r="E95" s="2">
-        <v>0</v>
-      </c>
-      <c r="F95" s="4">
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
         <v>42.5</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>88000</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95">
         <v>3740000</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K95" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="1">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>3</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" customFormat="1">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>391</v>
       </c>
-      <c r="C96" s="1">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>22</v>
       </c>
-      <c r="E96" s="2">
-        <v>0</v>
-      </c>
-      <c r="F96" s="4">
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
         <v>25.4</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96">
         <v>93000</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96">
         <v>2362200</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96">
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" customFormat="1">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>392</v>
       </c>
-      <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
         <v>22</v>
       </c>
-      <c r="E97" s="2">
-        <v>0</v>
-      </c>
-      <c r="F97" s="4">
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
         <v>65</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>85000</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97">
         <v>5525000</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K97" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="1">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" customFormat="1">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>395</v>
       </c>
-      <c r="C98" s="1">
-        <v>0</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
         <v>23</v>
       </c>
-      <c r="E98" s="2">
-        <v>0</v>
-      </c>
-      <c r="F98" s="4">
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
         <v>30.8</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>92000</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98">
         <v>2833600</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>3</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" customFormat="1">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>396</v>
       </c>
-      <c r="C99" s="1">
-        <v>0</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
         <v>23</v>
       </c>
-      <c r="E99" s="2">
-        <v>0</v>
-      </c>
-      <c r="F99" s="4">
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
         <v>34.1</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>92000</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99">
         <v>3137200</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K99" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" customFormat="1">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>397</v>
       </c>
-      <c r="C100" s="1">
-        <v>2</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
         <v>23</v>
       </c>
-      <c r="E100" s="2">
-        <v>0</v>
-      </c>
-      <c r="F100" s="4">
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
         <v>64</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>85000</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100">
         <v>5440000</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1">
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" customFormat="1">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>399</v>
       </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
         <v>23</v>
       </c>
-      <c r="E101" s="2">
-        <v>0</v>
-      </c>
-      <c r="F101" s="4">
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
         <v>42.5</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>88000</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101">
         <v>3740000</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1">
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" customFormat="1">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>401</v>
       </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
         <v>23</v>
       </c>
-      <c r="E102" s="2">
-        <v>0</v>
-      </c>
-      <c r="F102" s="4">
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
         <v>65</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>85000</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102">
         <v>5525000</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1">
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" customFormat="1">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>402</v>
       </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
         <v>23</v>
       </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4">
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
         <v>74.8</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>84000</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103">
         <v>6283200</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K103" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1">
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" customFormat="1">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>404</v>
       </c>
-      <c r="C104" s="1">
-        <v>0</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>24</v>
       </c>
-      <c r="E104" s="2">
-        <v>0</v>
-      </c>
-      <c r="F104" s="4">
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
         <v>30.8</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104">
         <v>93000</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104">
         <v>2864400</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K104" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1">
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" customFormat="1">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>405</v>
       </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
         <v>24</v>
       </c>
-      <c r="E105" s="2">
-        <v>0</v>
-      </c>
-      <c r="F105" s="4">
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
         <v>34.1</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105">
         <v>93000</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105">
         <v>3171300</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K105" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1">
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" customFormat="1">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>406</v>
       </c>
-      <c r="C106" s="1">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
         <v>24</v>
       </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-      <c r="F106" s="4">
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
         <v>64</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106">
         <v>86000</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106">
         <v>5504000</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K106" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1">
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" customFormat="1">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>407</v>
       </c>
-      <c r="C107" s="1">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
         <v>24</v>
       </c>
-      <c r="E107" s="2">
-        <v>0</v>
-      </c>
-      <c r="F107" s="4">
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
         <v>42.5</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107">
         <v>86343.53</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107">
         <v>3669600</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K107" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1">
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" customFormat="1">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>408</v>
       </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
         <v>24</v>
       </c>
-      <c r="E108" s="2">
-        <v>0</v>
-      </c>
-      <c r="F108" s="4">
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
         <v>42.5</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108">
         <v>86343.53</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108">
         <v>3669600</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K108" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1">
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" customFormat="1">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>409</v>
       </c>
-      <c r="C109" s="1">
-        <v>0</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
         <v>24</v>
       </c>
-      <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="4">
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
         <v>25.4</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109">
         <v>94000</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109">
         <v>2387600</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K109" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1">
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" customFormat="1">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>410</v>
       </c>
-      <c r="C110" s="1">
-        <v>2</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
         <v>24</v>
       </c>
-      <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="4">
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
         <v>65</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110">
         <v>86000</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110">
         <v>5590000</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K110" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="1">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" customFormat="1">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>411</v>
       </c>
-      <c r="C111" s="1">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1">
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
         <v>24</v>
       </c>
-      <c r="E111" s="2">
-        <v>0</v>
-      </c>
-      <c r="F111" s="4">
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
         <v>74.8</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111">
         <v>85000</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111">
         <v>6358000</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K111" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1">
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" customFormat="1">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>412</v>
       </c>
-      <c r="C112" s="1">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
         <v>24</v>
       </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-      <c r="F112" s="4">
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
         <v>64.3</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112">
         <v>86000</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112">
         <v>5529800</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K112" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1">
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" customFormat="1">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>446</v>
       </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
         <v>5</v>
       </c>
-      <c r="E113" s="2">
-        <v>0</v>
-      </c>
-      <c r="F113" s="4">
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
         <v>66.400000000000006</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113">
         <v>84500</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113">
         <v>5610800</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K113" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1">
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" customFormat="1">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>447</v>
       </c>
-      <c r="C114" s="1">
-        <v>3</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
         <v>5</v>
       </c>
-      <c r="E114" s="2">
-        <v>0</v>
-      </c>
-      <c r="F114" s="4">
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
         <v>83.7</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114">
         <v>80500</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114">
         <v>6737850</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K114" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1">
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" customFormat="1">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>455</v>
       </c>
-      <c r="C115" s="1">
-        <v>2</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
         <v>6</v>
       </c>
-      <c r="E115" s="2">
-        <v>0</v>
-      </c>
-      <c r="F115" s="4">
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
         <v>66.400000000000006</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115">
         <v>85000</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115">
         <v>5644000</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K115" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" customFormat="1">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>461</v>
       </c>
-      <c r="C116" s="1">
-        <v>2</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
         <v>7</v>
       </c>
-      <c r="E116" s="2">
-        <v>0</v>
-      </c>
-      <c r="F116" s="4">
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116">
         <v>61.8</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116">
         <v>84500</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116">
         <v>5222100</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K116" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1">
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" customFormat="1">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>468</v>
       </c>
-      <c r="C117" s="1">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1">
-        <v>8</v>
-      </c>
-      <c r="E117" s="2">
-        <v>0</v>
-      </c>
-      <c r="F117" s="4">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
         <v>30.1</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117">
         <v>91500</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117">
         <v>2754150</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K117" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1">
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" customFormat="1">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>473</v>
       </c>
-      <c r="C118" s="1">
-        <v>2</v>
-      </c>
-      <c r="D118" s="1">
-        <v>8</v>
-      </c>
-      <c r="E118" s="2">
-        <v>0</v>
-      </c>
-      <c r="F118" s="4">
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
         <v>66.400000000000006</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118">
         <v>85000</v>
       </c>
-      <c r="H118" s="2">
+      <c r="H118">
         <v>5644000</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K118" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1">
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" customFormat="1">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>477</v>
       </c>
-      <c r="C119" s="1">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
         <v>9</v>
       </c>
-      <c r="E119" s="2">
-        <v>0</v>
-      </c>
-      <c r="F119" s="4">
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
         <v>30.1</v>
       </c>
-      <c r="G119" s="3">
+      <c r="G119">
         <v>91500</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119">
         <v>2754150</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119">
         <v>0</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" customFormat="1">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>479</v>
       </c>
-      <c r="C120" s="1">
-        <v>2</v>
-      </c>
-      <c r="D120" s="1">
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
         <v>9</v>
       </c>
-      <c r="E120" s="2">
-        <v>0</v>
-      </c>
-      <c r="F120" s="4">
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
         <v>61.8</v>
       </c>
-      <c r="G120" s="3">
+      <c r="G120">
         <v>84500</v>
       </c>
-      <c r="H120" s="2">
+      <c r="H120">
         <v>5222100</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K120" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1">
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" customFormat="1">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>483</v>
       </c>
-      <c r="C121" s="1">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1">
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
         <v>9</v>
       </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-      <c r="F121" s="4">
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
         <v>83.7</v>
       </c>
-      <c r="G121" s="3">
+      <c r="G121">
         <v>81000</v>
       </c>
-      <c r="H121" s="2">
+      <c r="H121">
         <v>6779700</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K121" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1">
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" customFormat="1">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>495</v>
       </c>
-      <c r="C122" s="1">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1">
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
         <v>11</v>
       </c>
-      <c r="E122" s="2">
-        <v>0</v>
-      </c>
-      <c r="F122" s="4">
+      <c r="E122">
+        <v>3</v>
+      </c>
+      <c r="F122">
         <v>30.1</v>
       </c>
-      <c r="G122" s="3">
+      <c r="G122">
         <v>91500</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122">
         <v>2754150</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K122" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1">
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" customFormat="1">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>496</v>
       </c>
-      <c r="C123" s="1">
-        <v>0</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
         <v>11</v>
       </c>
-      <c r="E123" s="2">
-        <v>0</v>
-      </c>
-      <c r="F123" s="4">
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
         <v>27.4</v>
       </c>
-      <c r="G123" s="3">
+      <c r="G123">
         <v>91500</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123">
         <v>2507100</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K123" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1">
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" customFormat="1">
+      <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>504</v>
       </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
         <v>12</v>
       </c>
-      <c r="E124" s="2">
-        <v>0</v>
-      </c>
-      <c r="F124" s="4">
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
         <v>30.1</v>
       </c>
-      <c r="G124" s="3">
+      <c r="G124">
         <v>91500</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124">
         <v>2754150</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K124" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="1">
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" customFormat="1">
+      <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>506</v>
       </c>
-      <c r="C125" s="1">
-        <v>2</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
         <v>12</v>
       </c>
-      <c r="E125" s="2">
-        <v>0</v>
-      </c>
-      <c r="F125" s="4">
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
         <v>61.8</v>
       </c>
-      <c r="G125" s="3">
+      <c r="G125">
         <v>84500</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125">
         <v>5222100</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K125" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="1">
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" customFormat="1">
+      <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>508</v>
       </c>
-      <c r="C126" s="1">
-        <v>0</v>
-      </c>
-      <c r="D126" s="1">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
         <v>12</v>
       </c>
-      <c r="E126" s="2">
-        <v>0</v>
-      </c>
-      <c r="F126" s="4">
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
         <v>28.3</v>
       </c>
-      <c r="G126" s="3">
+      <c r="G126">
         <v>91000</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126">
         <v>2575300</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K126" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1">
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" customFormat="1">
+      <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>509</v>
       </c>
-      <c r="C127" s="1">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1">
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
         <v>12</v>
       </c>
-      <c r="E127" s="2">
-        <v>0</v>
-      </c>
-      <c r="F127" s="4">
+      <c r="E127">
+        <v>3</v>
+      </c>
+      <c r="F127">
         <v>63.2</v>
       </c>
-      <c r="G127" s="3">
+      <c r="G127">
         <v>86000</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127">
         <v>5435200</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K127" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4877,7 +5645,7 @@
         <v>13</v>
       </c>
       <c r="E128" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F128" s="4">
         <v>62.8</v>
@@ -4894,11 +5662,17 @@
       <c r="J128" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K128" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="K128" s="2">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1">
+        <v>2</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4912,7 +5686,7 @@
         <v>13</v>
       </c>
       <c r="E129" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F129" s="4">
         <v>30.1</v>
@@ -4929,11 +5703,17 @@
       <c r="J129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K129" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="K129" s="2">
+        <v>1</v>
+      </c>
+      <c r="L129" s="1">
+        <v>2</v>
+      </c>
+      <c r="M129" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4947,7 +5727,7 @@
         <v>13</v>
       </c>
       <c r="E130" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F130" s="4">
         <v>27.6</v>
@@ -4964,11 +5744,17 @@
       <c r="J130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K130" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1">
+        <v>2</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4982,7 +5768,7 @@
         <v>13</v>
       </c>
       <c r="E131" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F131" s="4">
         <v>43.6</v>
@@ -4999,11 +5785,17 @@
       <c r="J131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K131" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1">
+        <v>2</v>
+      </c>
+      <c r="M131" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5017,7 +5809,7 @@
         <v>13</v>
       </c>
       <c r="E132" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F132" s="4">
         <v>28.6</v>
@@ -5034,11 +5826,17 @@
       <c r="J132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K132" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="K132" s="2">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1">
+        <v>2</v>
+      </c>
+      <c r="M132" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5052,7 +5850,7 @@
         <v>13</v>
       </c>
       <c r="E133" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133" s="4">
         <v>66.599999999999994</v>
@@ -5069,11 +5867,17 @@
       <c r="J133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K133" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1">
+        <v>2</v>
+      </c>
+      <c r="M133" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5087,7 +5891,7 @@
         <v>14</v>
       </c>
       <c r="E134" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F134" s="4">
         <v>27.3</v>
@@ -5104,11 +5908,17 @@
       <c r="J134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K134" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1">
+        <v>2</v>
+      </c>
+      <c r="M134" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5122,7 +5932,7 @@
         <v>15</v>
       </c>
       <c r="E135" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F135" s="4">
         <v>62.8</v>
@@ -5139,11 +5949,17 @@
       <c r="J135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K135" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="K135" s="2">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1">
+        <v>2</v>
+      </c>
+      <c r="M135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5157,7 +5973,7 @@
         <v>15</v>
       </c>
       <c r="E136" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F136" s="4">
         <v>30.1</v>
@@ -5174,11 +5990,17 @@
       <c r="J136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K136" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="K136" s="2">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1">
+        <v>2</v>
+      </c>
+      <c r="M136" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5192,7 +6014,7 @@
         <v>15</v>
       </c>
       <c r="E137" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F137" s="4">
         <v>27.6</v>
@@ -5209,11 +6031,17 @@
       <c r="J137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K137" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1">
+        <v>2</v>
+      </c>
+      <c r="M137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5227,7 +6055,7 @@
         <v>15</v>
       </c>
       <c r="E138" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138" s="4">
         <v>62.2</v>
@@ -5244,11 +6072,17 @@
       <c r="J138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K138" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="K138" s="2">
+        <v>1</v>
+      </c>
+      <c r="L138" s="1">
+        <v>2</v>
+      </c>
+      <c r="M138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5262,7 +6096,7 @@
         <v>15</v>
       </c>
       <c r="E139" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" s="4">
         <v>66.599999999999994</v>
@@ -5279,11 +6113,17 @@
       <c r="J139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K139" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="K139" s="2">
+        <v>1</v>
+      </c>
+      <c r="L139" s="1">
+        <v>2</v>
+      </c>
+      <c r="M139" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5297,7 +6137,7 @@
         <v>15</v>
       </c>
       <c r="E140" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F140" s="4">
         <v>84.2</v>
@@ -5314,11 +6154,17 @@
       <c r="J140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K140" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="K140" s="2">
+        <v>1</v>
+      </c>
+      <c r="L140" s="1">
+        <v>2</v>
+      </c>
+      <c r="M140" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5332,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="E141" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F141" s="4">
         <v>62.8</v>
@@ -5349,11 +6195,17 @@
       <c r="J141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K141" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="K141" s="2">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1">
+        <v>2</v>
+      </c>
+      <c r="M141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5367,7 +6219,7 @@
         <v>16</v>
       </c>
       <c r="E142" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F142" s="4">
         <v>30.1</v>
@@ -5384,11 +6236,17 @@
       <c r="J142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K142" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="K142" s="2">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1">
+        <v>2</v>
+      </c>
+      <c r="M142" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5402,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="E143" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F143" s="4">
         <v>62.5</v>
@@ -5419,11 +6277,17 @@
       <c r="J143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K143" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="K143" s="2">
+        <v>1</v>
+      </c>
+      <c r="L143" s="1">
+        <v>2</v>
+      </c>
+      <c r="M143" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5437,7 +6301,7 @@
         <v>16</v>
       </c>
       <c r="E144" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F144" s="4">
         <v>43.6</v>
@@ -5454,11 +6318,17 @@
       <c r="J144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K144" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="K144" s="2">
+        <v>1</v>
+      </c>
+      <c r="L144" s="1">
+        <v>2</v>
+      </c>
+      <c r="M144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5472,7 +6342,7 @@
         <v>16</v>
       </c>
       <c r="E145" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F145" s="4">
         <v>28.6</v>
@@ -5489,11 +6359,17 @@
       <c r="J145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K145" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+      <c r="L145" s="1">
+        <v>2</v>
+      </c>
+      <c r="M145" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -5507,7 +6383,7 @@
         <v>18</v>
       </c>
       <c r="E146" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F146" s="4">
         <v>27.6</v>
@@ -5524,11 +6400,17 @@
       <c r="J146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K146" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+      <c r="L146" s="1">
+        <v>2</v>
+      </c>
+      <c r="M146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -5542,7 +6424,7 @@
         <v>18</v>
       </c>
       <c r="E147" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F147" s="4">
         <v>66.599999999999994</v>
@@ -5559,11 +6441,17 @@
       <c r="J147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K147" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+      <c r="L147" s="1">
+        <v>2</v>
+      </c>
+      <c r="M147" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -5577,7 +6465,7 @@
         <v>19</v>
       </c>
       <c r="E148" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F148" s="4">
         <v>27.6</v>
@@ -5594,11 +6482,17 @@
       <c r="J148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K148" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
+      <c r="L148" s="1">
+        <v>2</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -5612,7 +6506,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F149" s="4">
         <v>62.8</v>
@@ -5629,11 +6523,17 @@
       <c r="J149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K149" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+      <c r="L149" s="1">
+        <v>2</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -5647,7 +6547,7 @@
         <v>21</v>
       </c>
       <c r="E150" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F150" s="4">
         <v>30.1</v>
@@ -5664,11 +6564,17 @@
       <c r="J150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K150" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+      <c r="L150" s="1">
+        <v>2</v>
+      </c>
+      <c r="M150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -5682,7 +6588,7 @@
         <v>21</v>
       </c>
       <c r="E151" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F151" s="4">
         <v>62.2</v>
@@ -5699,11 +6605,17 @@
       <c r="J151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K151" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="K151" s="2">
+        <v>1</v>
+      </c>
+      <c r="L151" s="1">
+        <v>2</v>
+      </c>
+      <c r="M151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -5717,7 +6629,7 @@
         <v>21</v>
       </c>
       <c r="E152" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F152" s="4">
         <v>43.6</v>
@@ -5734,11 +6646,17 @@
       <c r="J152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K152" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+      <c r="L152" s="1">
+        <v>2</v>
+      </c>
+      <c r="M152" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -5752,7 +6670,7 @@
         <v>21</v>
       </c>
       <c r="E153" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F153" s="4">
         <v>66.599999999999994</v>
@@ -5769,11 +6687,17 @@
       <c r="J153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K153" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="K153" s="2">
+        <v>1</v>
+      </c>
+      <c r="L153" s="1">
+        <v>2</v>
+      </c>
+      <c r="M153" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -5787,7 +6711,7 @@
         <v>21</v>
       </c>
       <c r="E154" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F154" s="4">
         <v>84.2</v>
@@ -5804,11 +6728,17 @@
       <c r="J154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K154" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+      <c r="L154" s="1">
+        <v>2</v>
+      </c>
+      <c r="M154" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -5822,7 +6752,7 @@
         <v>22</v>
       </c>
       <c r="E155" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F155" s="4">
         <v>62.8</v>
@@ -5839,11 +6769,17 @@
       <c r="J155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K155" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="K155" s="2">
+        <v>1</v>
+      </c>
+      <c r="L155" s="1">
+        <v>2</v>
+      </c>
+      <c r="M155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5857,7 +6793,7 @@
         <v>22</v>
       </c>
       <c r="E156" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F156" s="4">
         <v>30.1</v>
@@ -5874,11 +6810,17 @@
       <c r="J156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K156" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="K156" s="2">
+        <v>1</v>
+      </c>
+      <c r="L156" s="1">
+        <v>2</v>
+      </c>
+      <c r="M156" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5892,7 +6834,7 @@
         <v>22</v>
       </c>
       <c r="E157" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F157" s="4">
         <v>27.6</v>
@@ -5909,11 +6851,17 @@
       <c r="J157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K157" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="K157" s="2">
+        <v>1</v>
+      </c>
+      <c r="L157" s="1">
+        <v>2</v>
+      </c>
+      <c r="M157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -5927,7 +6875,7 @@
         <v>22</v>
       </c>
       <c r="E158" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F158" s="4">
         <v>62.2</v>
@@ -5944,11 +6892,17 @@
       <c r="J158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K158" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="K158" s="2">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1">
+        <v>2</v>
+      </c>
+      <c r="M158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -5962,7 +6916,7 @@
         <v>22</v>
       </c>
       <c r="E159" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F159" s="4">
         <v>28.6</v>
@@ -5979,11 +6933,17 @@
       <c r="J159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K159" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="K159" s="2">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1">
+        <v>2</v>
+      </c>
+      <c r="M159" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -5997,7 +6957,7 @@
         <v>22</v>
       </c>
       <c r="E160" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F160" s="4">
         <v>66.599999999999994</v>
@@ -6014,11 +6974,17 @@
       <c r="J160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K160" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="K160" s="2">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1">
+        <v>2</v>
+      </c>
+      <c r="M160" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6032,7 +6998,7 @@
         <v>22</v>
       </c>
       <c r="E161" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F161" s="4">
         <v>84.2</v>
@@ -6049,11 +7015,17 @@
       <c r="J161" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K161" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="K161" s="2">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1">
+        <v>2</v>
+      </c>
+      <c r="M161" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6067,7 +7039,7 @@
         <v>23</v>
       </c>
       <c r="E162" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F162" s="4">
         <v>62.8</v>
@@ -6084,11 +7056,17 @@
       <c r="J162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K162" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="K162" s="2">
+        <v>1</v>
+      </c>
+      <c r="L162" s="1">
+        <v>2</v>
+      </c>
+      <c r="M162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6102,7 +7080,7 @@
         <v>23</v>
       </c>
       <c r="E163" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F163" s="4">
         <v>30.1</v>
@@ -6119,11 +7097,17 @@
       <c r="J163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K163" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="K163" s="2">
+        <v>1</v>
+      </c>
+      <c r="L163" s="1">
+        <v>2</v>
+      </c>
+      <c r="M163" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6137,7 +7121,7 @@
         <v>23</v>
       </c>
       <c r="E164" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F164" s="4">
         <v>27.6</v>
@@ -6154,11 +7138,17 @@
       <c r="J164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K164" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="K164" s="2">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1">
+        <v>2</v>
+      </c>
+      <c r="M164" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6172,7 +7162,7 @@
         <v>23</v>
       </c>
       <c r="E165" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F165" s="4">
         <v>62.5</v>
@@ -6189,11 +7179,17 @@
       <c r="J165" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K165" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="K165" s="2">
+        <v>1</v>
+      </c>
+      <c r="L165" s="1">
+        <v>2</v>
+      </c>
+      <c r="M165" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6207,7 +7203,7 @@
         <v>23</v>
       </c>
       <c r="E166" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F166" s="4">
         <v>43.6</v>
@@ -6224,11 +7220,17 @@
       <c r="J166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K166" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="K166" s="2">
+        <v>1</v>
+      </c>
+      <c r="L166" s="1">
+        <v>2</v>
+      </c>
+      <c r="M166" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6242,7 +7244,7 @@
         <v>23</v>
       </c>
       <c r="E167" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F167" s="4">
         <v>28.6</v>
@@ -6259,11 +7261,17 @@
       <c r="J167" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K167" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="K167" s="2">
+        <v>1</v>
+      </c>
+      <c r="L167" s="1">
+        <v>2</v>
+      </c>
+      <c r="M167" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6277,7 +7285,7 @@
         <v>23</v>
       </c>
       <c r="E168" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F168" s="4">
         <v>66.599999999999994</v>
@@ -6294,11 +7302,17 @@
       <c r="J168" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K168" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="K168" s="2">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1">
+        <v>2</v>
+      </c>
+      <c r="M168" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6312,7 +7326,7 @@
         <v>23</v>
       </c>
       <c r="E169" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F169" s="4">
         <v>84.2</v>
@@ -6329,11 +7343,17 @@
       <c r="J169" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K169" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="K169" s="2">
+        <v>1</v>
+      </c>
+      <c r="L169" s="1">
+        <v>2</v>
+      </c>
+      <c r="M169" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6347,7 +7367,7 @@
         <v>24</v>
       </c>
       <c r="E170" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F170" s="4">
         <v>66.599999999999994</v>
@@ -6364,11 +7384,17 @@
       <c r="J170" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K170" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="K170" s="2">
+        <v>1</v>
+      </c>
+      <c r="L170" s="1">
+        <v>2</v>
+      </c>
+      <c r="M170" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6382,7 +7408,7 @@
         <v>24</v>
       </c>
       <c r="E171" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F171" s="4">
         <v>84.2</v>
@@ -6399,11 +7425,17 @@
       <c r="J171" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K171" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="K171" s="2">
+        <v>1</v>
+      </c>
+      <c r="L171" s="1">
+        <v>2</v>
+      </c>
+      <c r="M171" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6417,7 +7449,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F172" s="4">
         <v>43.3</v>
@@ -6434,11 +7466,17 @@
       <c r="J172" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K172" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="K172" s="2">
+        <v>1</v>
+      </c>
+      <c r="L172" s="1">
+        <v>2</v>
+      </c>
+      <c r="M172" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6452,7 +7490,7 @@
         <v>25</v>
       </c>
       <c r="E173" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F173" s="4">
         <v>62.8</v>
@@ -6469,11 +7507,17 @@
       <c r="J173" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K173" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="K173" s="2">
+        <v>1</v>
+      </c>
+      <c r="L173" s="1">
+        <v>2</v>
+      </c>
+      <c r="M173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6487,7 +7531,7 @@
         <v>25</v>
       </c>
       <c r="E174" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F174" s="4">
         <v>30.1</v>
@@ -6504,11 +7548,17 @@
       <c r="J174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K174" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="K174" s="2">
+        <v>1</v>
+      </c>
+      <c r="L174" s="1">
+        <v>2</v>
+      </c>
+      <c r="M174" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6522,7 +7572,7 @@
         <v>25</v>
       </c>
       <c r="E175" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F175" s="4">
         <v>27.6</v>
@@ -6539,11 +7589,17 @@
       <c r="J175" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K175" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="K175" s="2">
+        <v>1</v>
+      </c>
+      <c r="L175" s="1">
+        <v>2</v>
+      </c>
+      <c r="M175" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6557,7 +7613,7 @@
         <v>25</v>
       </c>
       <c r="E176" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F176" s="4">
         <v>62.2</v>
@@ -6574,11 +7630,17 @@
       <c r="J176" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K176" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="K176" s="2">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1">
+        <v>2</v>
+      </c>
+      <c r="M176" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6592,7 +7654,7 @@
         <v>25</v>
       </c>
       <c r="E177" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F177" s="4">
         <v>28.6</v>
@@ -6609,8 +7671,14 @@
       <c r="J177" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K177" s="5">
-        <v>1</v>
+      <c r="K177" s="2">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1">
+        <v>2</v>
+      </c>
+      <c r="M177" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
